--- a/src/assets/Baraa_Format.xlsx
+++ b/src/assets/Baraa_Format.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JOBS\MASU\DOCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khash\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A93A31-17B7-4456-9D84-1D82DC2150BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="11970" yWindow="6420" windowWidth="29055" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Баркод</t>
   </si>
@@ -60,15 +61,12 @@
   </si>
   <si>
     <t>Помидор мини</t>
-  </si>
-  <si>
-    <t>Хүнс ногоо</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,9 +117,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -405,16 +402,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -423,74 +420,72 @@
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>8938507039242</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>1900</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>1550</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>7215</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>10000</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>8000</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
